--- a/data/infraestructura-corredores.xlsx
+++ b/data/infraestructura-corredores.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Cafetales arbolados</t>
   </si>
   <si>
-    <t xml:space="preserve">Pastos cultivados</t>
+    <t xml:space="preserve">Gramíneas</t>
   </si>
   <si>
     <t xml:space="preserve">Cultivos perennes</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Cultivos confinados</t>
   </si>
   <si>
-    <t xml:space="preserve">Lagunas estacionales e intermitentes</t>
+    <t xml:space="preserve">Estanques, lagos, lagunas estacionales e intermitentes</t>
   </si>
   <si>
     <t xml:space="preserve">Bosques y arbolados periurbanos</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Arbolados dispersos</t>
   </si>
   <si>
-    <t xml:space="preserve">Parques y jardines &lt; 500 metros cuadrados</t>
+    <t xml:space="preserve">Parques, y jardines &lt; 500 metros cuadrados</t>
   </si>
   <si>
     <t xml:space="preserve">Campos deportivos y recreativos</t>
@@ -194,7 +194,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -213,6 +213,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -292,21 +296,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.63"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -374,329 +378,329 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>3.71592</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.326752</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>5.864112</v>
+        <v>5.857344</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.195488</v>
+        <v>19.30536</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>149.58</v>
+        <v>151.171344</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>468.024048</v>
+        <v>454.151376</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>137.29032</v>
+        <v>137.9124</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>122.420016</v>
+        <v>93.723552</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>20.309616</v>
+        <v>20.356272</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>2544.47136</v>
+        <v>3166.911936</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.946848</v>
+        <v>15.20856</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.655056</v>
+        <v>25.100928</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.005904</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.496512</v>
+        <v>0.492768</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1371.192048</v>
+        <v>1391.251104</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1221.078528</v>
+        <v>1225.662048</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1210.755312</v>
+        <v>588.42648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>65.373408</v>
+        <v>64.119168</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>1.965744</v>
+        <v>1.95984</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.128288</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6.13728</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.038048</v>
+        <v>0.622224</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.876464</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.00792</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>40.73112</v>
+        <v>41.190624</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>26.152416</v>
+        <v>26.592048</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>29.036304</v>
+        <v>30.182112</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>42.545088</v>
+        <v>43.0524</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>45.267552</v>
+        <v>32.561136</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>16.95168</v>
+        <v>18.099216</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>521.972352</v>
+        <v>520.96824</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.22264</v>
+        <v>1.405728</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.044992</v>
+        <v>17.033904</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.633056</v>
+        <v>4.63392</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.454752</v>
+        <v>0.455472</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>581.115168</v>
+        <v>593.492688</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>675.95112</v>
+        <v>677.943792</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>180.754416</v>
+        <v>182.765088</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>6.01344</v>
+        <v>6.351264</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0.191232</v>
+        <v>0.158688</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.207584</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.652896</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>91.234512</v>
+        <v>0.184752</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>116.986896</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>3.866688</v>
+        <v>3.511008</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>186.809616</v>
+        <v>195.559776</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>356.883552</v>
+        <v>367.861248</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1292.527872</v>
+        <v>1413.109728</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>593.976816</v>
+        <v>606.721824</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1278.9504</v>
+        <v>719.82864</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1967.59944</v>
+        <v>2102.532768</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2423.580624</v>
+        <v>3343.601376</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>125.500176</v>
+        <v>74.046816</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>747.886032</v>
+        <v>761.058</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>255.138768</v>
+        <v>255.23496</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>31.844592</v>
+        <v>31.39992</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5474.516256</v>
+        <v>5461.977168</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4318.213824</v>
+        <v>4431.09168</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>2995.554096</v>
+        <v>2371.174704</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>214.704288</v>
+        <v>359.427168</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.027408</v>
+        <v>10.56024</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>29.029968</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10.482624</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>30.63456</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>19.547136</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>80.50104</v>
+        <v>80.896608</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>135.983664</v>
+        <v>137.073888</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>483.653232</v>
+        <v>507.994992</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1227.71592</v>
+        <v>1286.991648</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1204.142112</v>
+        <v>1210.365792</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1482.937632</v>
+        <v>1242.287856</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>261.011664</v>
+        <v>272.7504</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2783.958336</v>
+        <v>3131.217216</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>249.885072</v>
+        <v>15.869376</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1060.021872</v>
+        <v>1079.967312</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>71.666496</v>
+        <v>72.18432</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.83776</v>
+        <v>15.053328</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2452.562352</v>
+        <v>2229.166224</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2162.685888</v>
+        <v>2180.842416</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>2391.946416</v>
+        <v>2411.2584</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>390.576528</v>
+        <v>641.9124</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>63.41328</v>
+        <v>62.60688</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.566144</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26.777232</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>156.297312</v>
+        <v>7.38</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>100.18512</v>
+        <v>3.246048</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>59.381568</v>
+        <v>55.88496</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>141.63696</v>
+        <v>147.594096</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>759.640752</v>
+        <v>808.300944</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>429.441408</v>
+        <v>462.965328</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2251.982304</v>
+        <v>2288.48904</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2175.191712</v>
+        <v>2034.427536</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>593.787024</v>
+        <v>613.203984</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1406.284704</v>
+        <v>1668.541968</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>181.769904</v>
+        <v>1.01592</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>359.560368</v>
+        <v>369.61272</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>18.539568</v>
+        <v>13.013856</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6.016752</v>
+        <v>6.053904</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>5611.285008</v>
+        <v>5373.74016</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>4980.242736</v>
+        <v>5077.958112</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>1882.478592</v>
+        <v>1905.555456</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>458.384112</v>
+        <v>803.789136</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>137.76696</v>
+        <v>113.480352</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>82.439568</v>
+        <v>37.827936</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,64 +708,64 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>19.38096</v>
+        <v>3.500928</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>9.572544</v>
+        <v>1.708992</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.584352</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>37.903392</v>
+        <v>39.288096</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>352.886544</v>
+        <v>373.624128</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>117.11952</v>
+        <v>39.167712</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>1053.282384</v>
+        <v>1069.197696</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>1099.383696</v>
+        <v>911.453472</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>56.244384</v>
+        <v>65.171088</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>336.06864</v>
+        <v>544.994928</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12.77856</v>
+        <v>5.659056</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>2.45664</v>
+        <v>6.931152</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.029088</v>
+        <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.682848</v>
+        <v>0.691776</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>703.992672</v>
+        <v>572.83128</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>999.170352</v>
+        <v>1052.5572</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>297.726336</v>
+        <v>304.534944</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>165.06504</v>
+        <v>288.156384</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>61.99848</v>
+        <v>59.84928</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>35.557632</v>
+        <v>22.567248</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,37 +773,37 @@
         <v>27</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>17.642592</v>
+        <v>4.013424</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13.057776</v>
+        <v>4.818096</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.793584</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>19.600848</v>
+        <v>23.793408</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>324.529776</v>
+        <v>346.816224</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>28.668096</v>
+        <v>68.393232</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>1022.174352</v>
+        <v>1034.111664</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1013.659632</v>
+        <v>917.445312</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>219.136608</v>
+        <v>227.538432</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>42.170688</v>
+        <v>62.451072</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>7.536816</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>0</v>
@@ -808,47 +812,71 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1.791216</v>
+        <v>3.397104</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>252.63792</v>
+        <v>117.106272</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>427.136544</v>
+        <v>467.539488</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>223.813008</v>
+        <v>230.103504</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>170.479152</v>
+        <v>294.15816</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>57.435552</v>
+        <v>55.701936</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>31.368384</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
+        <v>16.227216</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
